--- a/Data/df_RF_feature_importances.xlsx
+++ b/Data/df_RF_feature_importances.xlsx
@@ -1,100 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelfreistein/Desktop/exercises/UrbanTech/project_final/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C994EC9C-CF44-9B46-B7E4-24693A02A1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>Anteil Frauen</t>
-  </si>
-  <si>
-    <t>Anteil E_U1</t>
-  </si>
-  <si>
-    <t>Anteil E_1U6</t>
-  </si>
-  <si>
-    <t>Anteil E_6U15</t>
-  </si>
-  <si>
-    <t>Anteil E_15U18</t>
-  </si>
-  <si>
-    <t>Anteil E_18U25</t>
-  </si>
-  <si>
-    <t>Anteil E_25U35</t>
-  </si>
-  <si>
-    <t>Anteil E_35U45</t>
-  </si>
-  <si>
-    <t>Anteil E_45U55</t>
-  </si>
-  <si>
-    <t>Anteil E_55U65</t>
-  </si>
-  <si>
-    <t>Anteil E_65U80</t>
-  </si>
-  <si>
-    <t>Anteil E_80U110</t>
-  </si>
-  <si>
-    <t>E insgesamt psqkm</t>
-  </si>
-  <si>
-    <t>Ausschank von Getränken psqkm</t>
-  </si>
-  <si>
-    <t>Spiel-, Wett- und Lotteriewesen psqkm</t>
-  </si>
-  <si>
-    <t>Einzelhandel mit Getränken psqkm</t>
-  </si>
-  <si>
-    <t>Einzelhandel mit Tabakwaren psqkm</t>
-  </si>
-  <si>
-    <t>num_street_lights psqkm</t>
-  </si>
-  <si>
-    <t>Unfall mit Leichtverletzten pro Einwohner</t>
-  </si>
-  <si>
-    <t>Unfall mit Schwerverletzten pro Einwohner</t>
-  </si>
-  <si>
-    <t>Unfall mit Getöteten pro Einwohner</t>
-  </si>
-  <si>
-    <t>WLEINF psqkm</t>
-  </si>
-  <si>
-    <t>WLMIT psqkm</t>
-  </si>
-  <si>
-    <t>WLGUT psqkm</t>
-  </si>
-  <si>
-    <t>WLNZORD psqkm</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t>Bars, pubs and clubs</t>
+  </si>
+  <si>
+    <t>Casinos and betting stores</t>
+  </si>
+  <si>
+    <t>Liquor stores</t>
+  </si>
+  <si>
+    <t>Tobacco retail dealers</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Female Population</t>
+  </si>
+  <si>
+    <t>Male Population</t>
+  </si>
+  <si>
+    <t>Population  Infants</t>
+  </si>
+  <si>
+    <t>Population ages 1-6</t>
+  </si>
+  <si>
+    <t>Population ages 6-15</t>
+  </si>
+  <si>
+    <t>Population ages 15-18</t>
+  </si>
+  <si>
+    <t>Population ages 18-25</t>
+  </si>
+  <si>
+    <t>Population ages 25-35</t>
+  </si>
+  <si>
+    <t>Population ages 35-45</t>
+  </si>
+  <si>
+    <t>Population ages 45-55</t>
+  </si>
+  <si>
+    <t>Population ages 55-65</t>
+  </si>
+  <si>
+    <t>Population ages 65-80</t>
+  </si>
+  <si>
+    <t>Population ages 80-110</t>
+  </si>
+  <si>
+    <t>Simple residential area</t>
+  </si>
+  <si>
+    <t>Average residential area</t>
+  </si>
+  <si>
+    <t>Good residential area</t>
+  </si>
+  <si>
+    <t>Residential area without allocation</t>
+  </si>
+  <si>
+    <t>Area in square kilometers</t>
+  </si>
+  <si>
+    <t>Number of street lights</t>
+  </si>
+  <si>
+    <t>Accidents resulting in deaths</t>
+  </si>
+  <si>
+    <t>Accidents with major injuries</t>
+  </si>
+  <si>
+    <t>Accidents with minor injuries</t>
   </si>
   <si>
     <t>Straftaten insgesamt</t>
@@ -121,7 +121,7 @@
     <t>Diebstahl von Kraftwagen</t>
   </si>
   <si>
-    <t>Diebstahl aus Kfz</t>
+    <t>Diebstahl an/aus Kfz</t>
   </si>
   <si>
     <t>Fahrraddiebstahl</t>
@@ -133,6 +133,9 @@
     <t>Branddelikte insgesamt</t>
   </si>
   <si>
+    <t>Brandstiftung</t>
+  </si>
+  <si>
     <t>Sachbeschädigung insgesamt</t>
   </si>
   <si>
@@ -143,16 +146,13 @@
   </si>
   <si>
     <t>Kieztaten</t>
-  </si>
-  <si>
-    <t>Brandstiftung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,19 +215,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -269,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,27 +293,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,24 +327,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -546,16 +502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,1365 +585,1473 @@
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2">
-        <v>3.8595177083979811E-2</v>
+        <v>0.1296906529006463</v>
       </c>
       <c r="C2">
-        <v>3.7165389998102352E-3</v>
+        <v>0.09138345115184444</v>
       </c>
       <c r="D2">
-        <v>6.5745836090577131E-2</v>
+        <v>0.01350405704981616</v>
       </c>
       <c r="E2">
-        <v>5.8814693338248868E-2</v>
+        <v>0.2656384513440451</v>
       </c>
       <c r="F2">
-        <v>5.0677584614920749E-3</v>
+        <v>0.240558921773005</v>
       </c>
       <c r="G2">
-        <v>3.6010440137523657E-2</v>
+        <v>0.002413078661772164</v>
       </c>
       <c r="H2">
-        <v>7.0171212813204898E-3</v>
+        <v>0.0009466433603316258</v>
       </c>
       <c r="I2">
-        <v>6.4117335165116132E-3</v>
+        <v>0.001730080455034431</v>
       </c>
       <c r="J2">
-        <v>8.003223336904796E-3</v>
+        <v>0.005896807701041801</v>
       </c>
       <c r="K2">
-        <v>1.5956235587511601E-2</v>
+        <v>0.003758866707883088</v>
       </c>
       <c r="L2">
-        <v>2.5555234044355661E-2</v>
+        <v>0.004347144919122227</v>
       </c>
       <c r="M2">
-        <v>2.7802468516283541E-2</v>
+        <v>0.02415259787672105</v>
       </c>
       <c r="N2">
-        <v>4.8258078589502908E-2</v>
+        <v>0.01197583515222188</v>
       </c>
       <c r="O2">
-        <v>0.14980585492823001</v>
+        <v>0.008996146574503688</v>
       </c>
       <c r="P2">
-        <v>8.5491883964541382E-2</v>
+        <v>0.002616388885995735</v>
       </c>
       <c r="Q2">
-        <v>9.781381345843175E-2</v>
+        <v>0.002137863659661083</v>
       </c>
       <c r="R2">
-        <v>9.4268580198254043E-2</v>
+        <v>0.02067751779746833</v>
       </c>
       <c r="S2">
-        <v>0.12995064734146189</v>
+        <v>0.004670703224731411</v>
       </c>
       <c r="T2">
-        <v>4.03358630592109E-2</v>
+        <v>0.007868034884027821</v>
       </c>
       <c r="U2">
-        <v>1.307177394959601E-2</v>
+        <v>0.003425417057817308</v>
       </c>
       <c r="V2">
-        <v>2.719893584897081E-3</v>
+        <v>0.008809237247636681</v>
       </c>
       <c r="W2">
-        <v>1.171427033196131E-2</v>
+        <v>0.001770266680866275</v>
       </c>
       <c r="X2">
-        <v>1.4001321143098809E-2</v>
+        <v>0.009960246996651359</v>
       </c>
       <c r="Y2">
-        <v>1.2019299643599801E-2</v>
+        <v>0.02457941269448123</v>
       </c>
       <c r="Z2">
-        <v>1.852259412694582E-3</v>
+        <v>0.0012421199682982</v>
+      </c>
+      <c r="AA2">
+        <v>0.004731234012084604</v>
+      </c>
+      <c r="AB2">
+        <v>0.102518821262291</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3">
-        <v>2.3848825252307661E-2</v>
+        <v>0.301717337068422</v>
       </c>
       <c r="C3">
-        <v>6.0324917239698416E-3</v>
+        <v>0.1600845023208255</v>
       </c>
       <c r="D3">
-        <v>9.3204218713845835E-2</v>
+        <v>0.02403576139639955</v>
       </c>
       <c r="E3">
-        <v>2.683029629729802E-2</v>
+        <v>0.07973833680834792</v>
       </c>
       <c r="F3">
-        <v>8.7346564476470153E-3</v>
+        <v>0.007061295163418563</v>
       </c>
       <c r="G3">
-        <v>5.6887506014335697E-2</v>
+        <v>0.01184106158176159</v>
       </c>
       <c r="H3">
-        <v>2.0381269121424218E-2</v>
+        <v>0.006912292008223275</v>
       </c>
       <c r="I3">
-        <v>1.661540884581774E-2</v>
+        <v>0.005312599529301091</v>
       </c>
       <c r="J3">
-        <v>1.2005142710818709E-2</v>
+        <v>0.01036572321590686</v>
       </c>
       <c r="K3">
-        <v>2.150668467476162E-2</v>
+        <v>0.005933808775737845</v>
       </c>
       <c r="L3">
-        <v>2.5233692633234661E-2</v>
+        <v>0.005921579257668926</v>
       </c>
       <c r="M3">
-        <v>1.0849235872697189E-2</v>
+        <v>0.02454314240376848</v>
       </c>
       <c r="N3">
-        <v>1.7924408977374271E-2</v>
+        <v>0.03789374342958285</v>
       </c>
       <c r="O3">
-        <v>0.1748291575417909</v>
+        <v>0.01129780927486572</v>
       </c>
       <c r="P3">
-        <v>0.28594661661084247</v>
+        <v>0.01156354936323582</v>
       </c>
       <c r="Q3">
-        <v>1.4017552200817719E-2</v>
+        <v>0.01901403951902125</v>
       </c>
       <c r="R3">
-        <v>3.5578646410466028E-2</v>
+        <v>0.03477096430844454</v>
       </c>
       <c r="S3">
-        <v>1.696800243257713E-2</v>
+        <v>0.004025667440353584</v>
       </c>
       <c r="T3">
-        <v>6.5503159918710668E-2</v>
+        <v>0.01043292306933981</v>
       </c>
       <c r="U3">
-        <v>1.616802853651278E-2</v>
+        <v>0.01343194739750921</v>
       </c>
       <c r="V3">
-        <v>4.1860465718977832E-3</v>
+        <v>0.01091217220189213</v>
       </c>
       <c r="W3">
-        <v>1.647267992751884E-2</v>
+        <v>0.002748268844723064</v>
       </c>
       <c r="X3">
-        <v>1.7788193614195182E-2</v>
+        <v>0.007470166077278883</v>
       </c>
       <c r="Y3">
-        <v>9.1763131056057275E-3</v>
+        <v>0.0209375392903915</v>
       </c>
       <c r="Z3">
-        <v>3.311765843532231E-3</v>
+        <v>0.001553444105267295</v>
+      </c>
+      <c r="AA3">
+        <v>0.01563517627657036</v>
+      </c>
+      <c r="AB3">
+        <v>0.1548451498717424</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>3.2571363636513709E-2</v>
+        <v>0.2999930086480643</v>
       </c>
       <c r="C4">
-        <v>1.1386004444168501E-2</v>
+        <v>0.1361738854096909</v>
       </c>
       <c r="D4">
-        <v>5.2113297203356501E-2</v>
+        <v>0.043208779247529</v>
       </c>
       <c r="E4">
-        <v>2.9787147421974251E-2</v>
+        <v>0.07685486367618477</v>
       </c>
       <c r="F4">
-        <v>1.009599175091519E-2</v>
+        <v>0.007226721326787938</v>
       </c>
       <c r="G4">
-        <v>6.143455552737595E-2</v>
+        <v>0.01418970357520015</v>
       </c>
       <c r="H4">
-        <v>9.4853514961540843E-3</v>
+        <v>0.008670996738490588</v>
       </c>
       <c r="I4">
-        <v>1.734578590202954E-2</v>
+        <v>0.01151826131303769</v>
       </c>
       <c r="J4">
-        <v>1.412957187187432E-2</v>
+        <v>0.007149149497172865</v>
       </c>
       <c r="K4">
-        <v>1.1874098352439969E-2</v>
+        <v>0.007769180451098045</v>
       </c>
       <c r="L4">
-        <v>2.9153861420254581E-2</v>
+        <v>0.009198987256861102</v>
       </c>
       <c r="M4">
-        <v>1.88178859496781E-2</v>
+        <v>0.03052282710533266</v>
       </c>
       <c r="N4">
-        <v>1.2463561860597079E-2</v>
+        <v>0.1018141597828721</v>
       </c>
       <c r="O4">
-        <v>0.36354170067590041</v>
+        <v>0.01007635043150766</v>
       </c>
       <c r="P4">
-        <v>0.1089640172953939</v>
+        <v>0.01660345412203807</v>
       </c>
       <c r="Q4">
-        <v>1.035746003534278E-2</v>
+        <v>0.01589363693668878</v>
       </c>
       <c r="R4">
-        <v>2.4516854833304201E-2</v>
+        <v>0.02834774170639628</v>
       </c>
       <c r="S4">
-        <v>1.6601626380609451E-2</v>
+        <v>0.008683767445342215</v>
       </c>
       <c r="T4">
-        <v>7.6880558414420042E-2</v>
+        <v>0.01455517448395231</v>
       </c>
       <c r="U4">
-        <v>2.3567489559058661E-2</v>
+        <v>0.01398687756157172</v>
       </c>
       <c r="V4">
-        <v>2.6420396582255939E-3</v>
+        <v>0.005726691995253955</v>
       </c>
       <c r="W4">
-        <v>2.3903060029105319E-2</v>
+        <v>0.002792785481481437</v>
       </c>
       <c r="X4">
-        <v>2.4487582763853731E-2</v>
+        <v>0.0100035829270377</v>
       </c>
       <c r="Y4">
-        <v>1.1168645970769411E-2</v>
+        <v>0.02093789504421922</v>
       </c>
       <c r="Z4">
-        <v>2.7104875466848282E-3</v>
+        <v>0.00153821195923441</v>
+      </c>
+      <c r="AA4">
+        <v>0.01083538612114594</v>
+      </c>
+      <c r="AB4">
+        <v>0.08572791975580811</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>4.5575034196396642E-2</v>
+        <v>0.1058559414758517</v>
       </c>
       <c r="C5">
-        <v>2.4104658532214658E-3</v>
+        <v>0.05193440329219676</v>
       </c>
       <c r="D5">
-        <v>3.1918897689181443E-2</v>
+        <v>0.006340304184358983</v>
       </c>
       <c r="E5">
-        <v>6.3012743673460242E-2</v>
+        <v>0.1529289450201584</v>
       </c>
       <c r="F5">
-        <v>8.959910758459538E-3</v>
+        <v>0.07940332832735787</v>
       </c>
       <c r="G5">
-        <v>7.022260707299105E-2</v>
+        <v>0.06712482936548889</v>
       </c>
       <c r="H5">
-        <v>9.2734140030053397E-3</v>
+        <v>0.06301007511364623</v>
       </c>
       <c r="I5">
-        <v>1.1199831979385131E-2</v>
+        <v>0.006088613488721541</v>
       </c>
       <c r="J5">
-        <v>1.9752611094525599E-2</v>
+        <v>0.02023976163480918</v>
       </c>
       <c r="K5">
-        <v>2.290960059912282E-2</v>
+        <v>0.08196395136881669</v>
       </c>
       <c r="L5">
-        <v>3.5994800771633383E-2</v>
+        <v>0.05644799811488221</v>
       </c>
       <c r="M5">
-        <v>3.9011011469680418E-2</v>
+        <v>0.02121299997846075</v>
       </c>
       <c r="N5">
-        <v>3.7200348414329072E-2</v>
+        <v>0.0407300682275911</v>
       </c>
       <c r="O5">
-        <v>0.27701547340296739</v>
+        <v>0.00940654977286247</v>
       </c>
       <c r="P5">
-        <v>0.1090266321421469</v>
+        <v>0.01959163603035125</v>
       </c>
       <c r="Q5">
-        <v>1.540726289262272E-2</v>
+        <v>0.07499361630009439</v>
       </c>
       <c r="R5">
-        <v>8.1142112359555402E-2</v>
+        <v>0.04823094176682969</v>
       </c>
       <c r="S5">
-        <v>3.5829164198440087E-2</v>
+        <v>0.005926373067897961</v>
       </c>
       <c r="T5">
-        <v>3.1839633162937031E-2</v>
+        <v>0.008186763005490814</v>
       </c>
       <c r="U5">
-        <v>7.3348474221644989E-3</v>
+        <v>0.005864996752762395</v>
       </c>
       <c r="V5">
-        <v>1.5296624238110091E-3</v>
+        <v>0.004334269459852657</v>
       </c>
       <c r="W5">
-        <v>1.8424273427915212E-2</v>
+        <v>0.001308366852493819</v>
       </c>
       <c r="X5">
-        <v>1.58874176602611E-2</v>
+        <v>0.006986632316087045</v>
       </c>
       <c r="Y5">
-        <v>7.5367241781328052E-3</v>
+        <v>0.01078433318358432</v>
       </c>
       <c r="Z5">
-        <v>1.5855191536537641E-3</v>
+        <v>0.000688430664492158</v>
+      </c>
+      <c r="AA5">
+        <v>0.005716112304276674</v>
+      </c>
+      <c r="AB5">
+        <v>0.04469975893058403</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>4.6252695645238637E-2</v>
+        <v>0.3651107399112315</v>
       </c>
       <c r="C6">
-        <v>3.845708412199235E-3</v>
+        <v>0.1126241439265943</v>
       </c>
       <c r="D6">
-        <v>3.4584433352408413E-2</v>
+        <v>0.00250308476967348</v>
       </c>
       <c r="E6">
-        <v>6.6116277970148241E-2</v>
+        <v>0.125955236288865</v>
       </c>
       <c r="F6">
-        <v>1.185562242807809E-2</v>
+        <v>0.006220943490213508</v>
       </c>
       <c r="G6">
-        <v>7.9754522477849726E-2</v>
+        <v>0.00117511252296183</v>
       </c>
       <c r="H6">
-        <v>4.1086039941333467E-2</v>
+        <v>0.002124615096136963</v>
       </c>
       <c r="I6">
-        <v>4.7373548615146652E-3</v>
+        <v>0.003964440027561325</v>
       </c>
       <c r="J6">
-        <v>1.3386813829886631E-2</v>
+        <v>0.005634088594746846</v>
       </c>
       <c r="K6">
-        <v>1.3785357523142149E-2</v>
+        <v>0.005617309405236789</v>
       </c>
       <c r="L6">
-        <v>4.5051198909248177E-2</v>
+        <v>0.004394338450390058</v>
       </c>
       <c r="M6">
-        <v>2.4458557796918239E-2</v>
+        <v>0.03121217559013825</v>
       </c>
       <c r="N6">
-        <v>3.1066189429259601E-2</v>
+        <v>0.1264926672323771</v>
       </c>
       <c r="O6">
-        <v>0.3493518512496474</v>
+        <v>0.002253607338178403</v>
       </c>
       <c r="P6">
-        <v>7.0732900394937903E-2</v>
+        <v>0.01055230550855785</v>
       </c>
       <c r="Q6">
-        <v>7.5398075492214937E-3</v>
+        <v>0.009430367323575732</v>
       </c>
       <c r="R6">
-        <v>5.4947551134104253E-2</v>
+        <v>0.09352685671752942</v>
       </c>
       <c r="S6">
-        <v>2.2287865982159809E-2</v>
+        <v>0.002688200818557288</v>
       </c>
       <c r="T6">
-        <v>2.5167345864468241E-2</v>
+        <v>0.01871058096153198</v>
       </c>
       <c r="U6">
-        <v>9.940682655511025E-3</v>
+        <v>0.01061942927900601</v>
       </c>
       <c r="V6">
-        <v>1.3994050672602391E-3</v>
+        <v>0.001043990950731252</v>
       </c>
       <c r="W6">
-        <v>1.9168004362074709E-2</v>
+        <v>0.001201488693606033</v>
       </c>
       <c r="X6">
-        <v>9.7339934881681221E-3</v>
+        <v>0.009659409596599472</v>
       </c>
       <c r="Y6">
-        <v>1.2738273669223581E-2</v>
+        <v>0.004617418173130871</v>
       </c>
       <c r="Z6">
-        <v>1.011546005998057E-3</v>
+        <v>0.002348070734031282</v>
+      </c>
+      <c r="AA6">
+        <v>0.002627032836427269</v>
+      </c>
+      <c r="AB6">
+        <v>0.03769234576241025</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>2.8340084783309089E-2</v>
+        <v>0.07284831848621044</v>
       </c>
       <c r="C7">
-        <v>6.1211816304317318E-3</v>
+        <v>0.0673021657889121</v>
       </c>
       <c r="D7">
-        <v>0.10625561451155301</v>
+        <v>0.0103700388656494</v>
       </c>
       <c r="E7">
-        <v>1.5425851851863469E-2</v>
+        <v>0.0197299242436179</v>
       </c>
       <c r="F7">
-        <v>1.2126050697974511E-2</v>
+        <v>0.0669996909362752</v>
       </c>
       <c r="G7">
-        <v>9.1906078481585968E-2</v>
+        <v>0.1017778590768117</v>
       </c>
       <c r="H7">
-        <v>9.2895494124466717E-3</v>
+        <v>0.07018218814007861</v>
       </c>
       <c r="I7">
-        <v>1.3221462969498979E-2</v>
+        <v>0.002956210960931135</v>
       </c>
       <c r="J7">
-        <v>2.2032286053303589E-2</v>
+        <v>0.04114993969696425</v>
       </c>
       <c r="K7">
-        <v>9.871940546315806E-3</v>
+        <v>0.1370250772541614</v>
       </c>
       <c r="L7">
-        <v>3.9797640886314288E-2</v>
+        <v>0.062512200223206</v>
       </c>
       <c r="M7">
-        <v>1.917027305168836E-2</v>
+        <v>0.03828436013089255</v>
       </c>
       <c r="N7">
-        <v>5.9926024459410233E-2</v>
+        <v>0.02229183566003543</v>
       </c>
       <c r="O7">
-        <v>2.422484812844505E-2</v>
+        <v>0.009340461874888578</v>
       </c>
       <c r="P7">
-        <v>0.35724374911563372</v>
+        <v>0.05895547469829281</v>
       </c>
       <c r="Q7">
-        <v>5.9852304312128278E-3</v>
+        <v>0.09393283264637414</v>
       </c>
       <c r="R7">
-        <v>3.3061138402388821E-2</v>
+        <v>0.04561281865905237</v>
       </c>
       <c r="S7">
-        <v>6.7296599476085447E-2</v>
+        <v>0.003316639353287591</v>
       </c>
       <c r="T7">
-        <v>1.907464014202026E-2</v>
+        <v>0.01027291567560365</v>
       </c>
       <c r="U7">
-        <v>6.3061634226315054E-3</v>
+        <v>0.006187957607936199</v>
       </c>
       <c r="V7">
-        <v>1.48376970647776E-3</v>
+        <v>0.01036499896921167</v>
       </c>
       <c r="W7">
-        <v>1.8190166331914899E-2</v>
+        <v>0.001310720240552595</v>
       </c>
       <c r="X7">
-        <v>1.1603427290203489E-2</v>
+        <v>0.005111554247876317</v>
       </c>
       <c r="Y7">
-        <v>1.9419815543769391E-2</v>
+        <v>0.006861341113689875</v>
       </c>
       <c r="Z7">
-        <v>2.626412673521236E-3</v>
+        <v>0.001225257434998743</v>
+      </c>
+      <c r="AA7">
+        <v>0.00828060578297842</v>
+      </c>
+      <c r="AB7">
+        <v>0.02579661223151091</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>2.316353105474413E-2</v>
+        <v>0.1818775961342821</v>
       </c>
       <c r="C8">
-        <v>6.4465774562341418E-3</v>
+        <v>0.04522906366074828</v>
       </c>
       <c r="D8">
-        <v>6.299836180949249E-2</v>
+        <v>0.01798445777950786</v>
       </c>
       <c r="E8">
-        <v>0.11398199826027609</v>
+        <v>0.361859246290071</v>
       </c>
       <c r="F8">
-        <v>1.09375583729094E-2</v>
+        <v>0.07625600799364031</v>
       </c>
       <c r="G8">
-        <v>2.1429393000146499E-2</v>
+        <v>0.003563932245088287</v>
       </c>
       <c r="H8">
-        <v>3.9434734576147606E-3</v>
+        <v>0.002897341167312208</v>
       </c>
       <c r="I8">
-        <v>1.228518459311298E-2</v>
+        <v>0.002655013518431634</v>
       </c>
       <c r="J8">
-        <v>5.9719980203603584E-3</v>
+        <v>0.003558264620041535</v>
       </c>
       <c r="K8">
-        <v>1.3575110030404521E-2</v>
+        <v>0.002101721013550719</v>
       </c>
       <c r="L8">
-        <v>2.263923380899235E-2</v>
+        <v>0.009281734389275056</v>
       </c>
       <c r="M8">
-        <v>1.7309931164708942E-2</v>
+        <v>0.005501424479699838</v>
       </c>
       <c r="N8">
-        <v>3.3445484719029119E-2</v>
+        <v>0.009609993661522058</v>
       </c>
       <c r="O8">
-        <v>7.4934485896347686E-2</v>
+        <v>0.02626477154665262</v>
       </c>
       <c r="P8">
-        <v>4.0855976694486443E-2</v>
+        <v>0.01396986138633426</v>
       </c>
       <c r="Q8">
-        <v>0.20053060587338489</v>
+        <v>0.004506040501124966</v>
       </c>
       <c r="R8">
-        <v>0.12046831133455529</v>
+        <v>0.01659888677040517</v>
       </c>
       <c r="S8">
-        <v>0.12720350048098189</v>
+        <v>0.006190612112665015</v>
       </c>
       <c r="T8">
-        <v>2.669150453831735E-2</v>
+        <v>0.01229104335501369</v>
       </c>
       <c r="U8">
-        <v>9.3484012939074601E-3</v>
+        <v>0.004704141976447135</v>
       </c>
       <c r="V8">
-        <v>3.1314591445022219E-3</v>
+        <v>0.006364722439557264</v>
       </c>
       <c r="W8">
-        <v>1.112465289858776E-2</v>
+        <v>0.0006438595847404771</v>
       </c>
       <c r="X8">
-        <v>1.4617357150460669E-2</v>
+        <v>0.004034203592300735</v>
       </c>
       <c r="Y8">
-        <v>2.0885523588602201E-2</v>
+        <v>0.01297803854234022</v>
       </c>
       <c r="Z8">
-        <v>2.0803853578402402E-3</v>
+        <v>0.0001178080255811531</v>
+      </c>
+      <c r="AA8">
+        <v>0.002911511289650396</v>
+      </c>
+      <c r="AB8">
+        <v>0.166048701924016</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>3.6348694484229192E-2</v>
+        <v>0.005299447910204994</v>
       </c>
       <c r="C9">
-        <v>1.4599245729605361E-2</v>
+        <v>0.0227195119141441</v>
       </c>
       <c r="D9">
-        <v>2.4793522178646551E-2</v>
+        <v>0.00246342360803252</v>
       </c>
       <c r="E9">
-        <v>3.3805857082577002E-2</v>
+        <v>0.01019299602387494</v>
       </c>
       <c r="F9">
-        <v>2.1934350997451672E-2</v>
+        <v>0.06588972285145674</v>
       </c>
       <c r="G9">
-        <v>3.3775517023397497E-2</v>
+        <v>0.009711518625623406</v>
       </c>
       <c r="H9">
-        <v>1.395649028681485E-2</v>
+        <v>0.01706844940506077</v>
       </c>
       <c r="I9">
-        <v>1.5446141755182481E-2</v>
+        <v>0.007017183978469061</v>
       </c>
       <c r="J9">
-        <v>3.2050506567883483E-2</v>
+        <v>0.006014154286335033</v>
       </c>
       <c r="K9">
-        <v>5.049100095000341E-2</v>
+        <v>0.01251431084940513</v>
       </c>
       <c r="L9">
-        <v>3.2816729670839422E-2</v>
+        <v>0.01965752057881753</v>
       </c>
       <c r="M9">
-        <v>1.356000215217633E-2</v>
+        <v>0.01862845403228885</v>
       </c>
       <c r="N9">
-        <v>5.9271345211620481E-2</v>
+        <v>0.02614139728418013</v>
       </c>
       <c r="O9">
-        <v>1.4294332875325879E-2</v>
+        <v>0.008654610732275348</v>
       </c>
       <c r="P9">
-        <v>6.7120934378636449E-2</v>
+        <v>0.1944558206403216</v>
       </c>
       <c r="Q9">
-        <v>1.0903350397812039E-2</v>
+        <v>0.008567962948628171</v>
       </c>
       <c r="R9">
-        <v>1.1885371294730669E-2</v>
+        <v>0.03704658249307161</v>
       </c>
       <c r="S9">
-        <v>4.2020395353323248E-2</v>
+        <v>0.01841438118206007</v>
       </c>
       <c r="T9">
-        <v>4.5812432728524442E-2</v>
+        <v>0.02448585221332537</v>
       </c>
       <c r="U9">
-        <v>2.6629130373594989E-2</v>
+        <v>0.02160627049678022</v>
       </c>
       <c r="V9">
-        <v>3.1122286332002352E-3</v>
+        <v>0.4012530059367495</v>
       </c>
       <c r="W9">
-        <v>2.6542411093266459E-2</v>
+        <v>0.00182384325559873</v>
       </c>
       <c r="X9">
-        <v>5.3615148657926187E-2</v>
+        <v>0.01728479925178114</v>
       </c>
       <c r="Y9">
-        <v>0.30891490866113641</v>
+        <v>0.01183379581377331</v>
       </c>
       <c r="Z9">
-        <v>6.2999514620952603E-3</v>
+        <v>0.002746826270323688</v>
+      </c>
+      <c r="AA9">
+        <v>0.01451738599746153</v>
+      </c>
+      <c r="AB9">
+        <v>0.01399077141995658</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10">
-        <v>2.7515414680250531E-2</v>
+        <v>0.01211234455510123</v>
       </c>
       <c r="C10">
-        <v>1.0583956069627349E-2</v>
+        <v>0.1092984750358329</v>
       </c>
       <c r="D10">
-        <v>7.3068901887593588E-2</v>
+        <v>0.009056000159728598</v>
       </c>
       <c r="E10">
-        <v>2.9031938865655579E-2</v>
+        <v>0.03533228649763958</v>
       </c>
       <c r="F10">
-        <v>1.0321623151742331E-2</v>
+        <v>0.2144497567737462</v>
       </c>
       <c r="G10">
-        <v>3.5662068741425593E-2</v>
+        <v>0.005998187402984806</v>
       </c>
       <c r="H10">
-        <v>2.459951040034259E-2</v>
+        <v>0.02781061557362133</v>
       </c>
       <c r="I10">
-        <v>1.9240770663824951E-2</v>
+        <v>0.008340505382571674</v>
       </c>
       <c r="J10">
-        <v>2.0307397338465309E-2</v>
+        <v>0.004351229130257217</v>
       </c>
       <c r="K10">
-        <v>3.0625202430889589E-2</v>
+        <v>0.004175206960951635</v>
       </c>
       <c r="L10">
-        <v>3.360636500283895E-2</v>
+        <v>0.01098576539252622</v>
       </c>
       <c r="M10">
-        <v>2.5559874212386959E-2</v>
+        <v>0.0251206735391369</v>
       </c>
       <c r="N10">
-        <v>2.8927416470207669E-2</v>
+        <v>0.01232599733444142</v>
       </c>
       <c r="O10">
-        <v>2.1936544146720659E-2</v>
+        <v>0.00789075481436226</v>
       </c>
       <c r="P10">
-        <v>0.1281840994297857</v>
+        <v>0.06668497848826267</v>
       </c>
       <c r="Q10">
-        <v>2.062033610556643E-2</v>
+        <v>0.008118242429743192</v>
       </c>
       <c r="R10">
-        <v>1.406925739958558E-2</v>
+        <v>0.08188425863396021</v>
       </c>
       <c r="S10">
-        <v>5.0345594946262472E-2</v>
+        <v>0.008234168980011267</v>
       </c>
       <c r="T10">
-        <v>2.8821977182009802E-2</v>
+        <v>0.04381758647103479</v>
       </c>
       <c r="U10">
-        <v>1.107472094967382E-2</v>
+        <v>0.008648366883520629</v>
       </c>
       <c r="V10">
-        <v>4.8402778895519178E-3</v>
+        <v>0.1731528591898145</v>
       </c>
       <c r="W10">
-        <v>2.0229753092963081E-2</v>
+        <v>0.002813083994933457</v>
       </c>
       <c r="X10">
-        <v>3.2622186575143847E-2</v>
+        <v>0.004863723647833321</v>
       </c>
       <c r="Y10">
-        <v>0.29467280048405597</v>
+        <v>0.0215662774462344</v>
       </c>
       <c r="Z10">
-        <v>3.5320118834297671E-3</v>
+        <v>0.0004233267133536548</v>
+      </c>
+      <c r="AA10">
+        <v>0.02875554431495571</v>
+      </c>
+      <c r="AB10">
+        <v>0.06378978425344024</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11">
-        <v>1.0833247255832779E-2</v>
+        <v>0.07762765102193445</v>
       </c>
       <c r="C11">
-        <v>3.2997494274802112E-3</v>
+        <v>0.009309623852777558</v>
       </c>
       <c r="D11">
-        <v>6.6788347188456762E-2</v>
+        <v>0.313720341423694</v>
       </c>
       <c r="E11">
-        <v>2.1551080699283541E-2</v>
+        <v>0.02155294243942467</v>
       </c>
       <c r="F11">
-        <v>9.2990823448363766E-3</v>
+        <v>0.184213380391451</v>
       </c>
       <c r="G11">
-        <v>7.5060802048992938E-3</v>
+        <v>0.03009749091789428</v>
       </c>
       <c r="H11">
-        <v>1.437276838902854E-2</v>
+        <v>0.04462296944156664</v>
       </c>
       <c r="I11">
-        <v>1.36341402139823E-2</v>
+        <v>0.02423422374570628</v>
       </c>
       <c r="J11">
-        <v>2.7381767436416098E-3</v>
+        <v>0.006747455467945744</v>
       </c>
       <c r="K11">
-        <v>2.552091984637584E-2</v>
+        <v>0.02034313164508839</v>
       </c>
       <c r="L11">
-        <v>6.1561083748657187E-2</v>
+        <v>0.001712878638910522</v>
       </c>
       <c r="M11">
-        <v>1.3744418185676351E-2</v>
+        <v>0.006254563424889469</v>
       </c>
       <c r="N11">
-        <v>5.9511569379741232E-2</v>
+        <v>0.03313317834169029</v>
       </c>
       <c r="O11">
-        <v>3.6546504028211503E-2</v>
+        <v>0.01073493641453793</v>
       </c>
       <c r="P11">
-        <v>4.8176078812551953E-2</v>
+        <v>0.08507025298965745</v>
       </c>
       <c r="Q11">
-        <v>0.45144757740487368</v>
+        <v>0.01707209852528445</v>
       </c>
       <c r="R11">
-        <v>2.6998346725052469E-2</v>
+        <v>0.007280545667618974</v>
       </c>
       <c r="S11">
-        <v>6.717328039042747E-2</v>
+        <v>0.00284887293791175</v>
       </c>
       <c r="T11">
-        <v>1.0339263101336151E-2</v>
+        <v>0.009762536663980607</v>
       </c>
       <c r="U11">
-        <v>5.0078296407997953E-3</v>
+        <v>0.007788937793947098</v>
       </c>
       <c r="V11">
-        <v>5.3650718836284984E-3</v>
+        <v>0.02098848614860265</v>
       </c>
       <c r="W11">
-        <v>6.8745911166864949E-3</v>
+        <v>0.001328245154018397</v>
       </c>
       <c r="X11">
-        <v>6.2766904868557741E-3</v>
+        <v>0.02060993005715163</v>
       </c>
       <c r="Y11">
-        <v>2.0454748084928011E-2</v>
+        <v>0.0141823430939943</v>
       </c>
       <c r="Z11">
-        <v>4.9793546967562092E-3</v>
+        <v>0.000148675081732938</v>
+      </c>
+      <c r="AA11">
+        <v>0.01763971636269442</v>
+      </c>
+      <c r="AB11">
+        <v>0.01097459235589412</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12">
-        <v>1.7807093238447029E-2</v>
+        <v>0.01791515152119705</v>
       </c>
       <c r="C12">
-        <v>1.176060637543898E-2</v>
+        <v>0.04919198837706639</v>
       </c>
       <c r="D12">
-        <v>0.21440022958846799</v>
+        <v>0.02256170775845257</v>
       </c>
       <c r="E12">
-        <v>1.59631857148551E-2</v>
+        <v>0.01815798197372709</v>
       </c>
       <c r="F12">
-        <v>1.5535671020853769E-2</v>
+        <v>0.02531049836868604</v>
       </c>
       <c r="G12">
-        <v>1.7545530352668221E-2</v>
+        <v>0.07252184290792726</v>
       </c>
       <c r="H12">
-        <v>1.7040015500207319E-2</v>
+        <v>0.01348857082717666</v>
       </c>
       <c r="I12">
-        <v>4.113938583110309E-2</v>
+        <v>0.008553298485795899</v>
       </c>
       <c r="J12">
-        <v>2.388862138322459E-2</v>
+        <v>0.01439701712155715</v>
       </c>
       <c r="K12">
-        <v>1.9444250236669791E-2</v>
+        <v>0.01575433464602675</v>
       </c>
       <c r="L12">
-        <v>1.9469977384413681E-2</v>
+        <v>0.01101210327472108</v>
       </c>
       <c r="M12">
-        <v>2.9237185128092379E-2</v>
+        <v>0.009422202642390508</v>
       </c>
       <c r="N12">
-        <v>1.29536992400371E-2</v>
+        <v>0.01329976168414442</v>
       </c>
       <c r="O12">
-        <v>2.357387760505035E-2</v>
+        <v>0.007900887026368387</v>
       </c>
       <c r="P12">
-        <v>0.17172427515177441</v>
+        <v>0.1882574872662984</v>
       </c>
       <c r="Q12">
-        <v>2.0284217731718939E-2</v>
+        <v>0.0245438022185721</v>
       </c>
       <c r="R12">
-        <v>7.3050350293414308E-3</v>
+        <v>0.04046469636964314</v>
       </c>
       <c r="S12">
-        <v>3.2119326232415632E-2</v>
+        <v>0.0102011648353314</v>
       </c>
       <c r="T12">
-        <v>2.9140622803491691E-2</v>
+        <v>0.01419896660153082</v>
       </c>
       <c r="U12">
-        <v>1.4568108820709731E-2</v>
+        <v>0.01199022339748176</v>
       </c>
       <c r="V12">
-        <v>2.3186582672259051E-2</v>
+        <v>0.2717524255729849</v>
       </c>
       <c r="W12">
-        <v>2.8901958810756981E-2</v>
+        <v>0.003026168021564937</v>
       </c>
       <c r="X12">
-        <v>1.561488058168848E-2</v>
+        <v>0.01882059851027431</v>
       </c>
       <c r="Y12">
-        <v>0.1726865489556148</v>
+        <v>0.03135034181492436</v>
       </c>
       <c r="Z12">
-        <v>4.7091146106994046E-3</v>
+        <v>0.008520600309603882</v>
+      </c>
+      <c r="AA12">
+        <v>0.0159915824006361</v>
+      </c>
+      <c r="AB12">
+        <v>0.06139459606591657</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13">
-        <v>3.8864799464218468E-2</v>
+        <v>0.07882787679551936</v>
       </c>
       <c r="C13">
-        <v>2.1044511798188101E-2</v>
+        <v>0.03069860276364329</v>
       </c>
       <c r="D13">
-        <v>3.0819796826188552E-2</v>
+        <v>0.01499874804455248</v>
       </c>
       <c r="E13">
-        <v>3.16307052829898E-2</v>
+        <v>0.008813007845964381</v>
       </c>
       <c r="F13">
-        <v>1.5675632287405011E-2</v>
+        <v>0.08825174685109806</v>
       </c>
       <c r="G13">
-        <v>9.7793869595977342E-2</v>
+        <v>0.07793031072561976</v>
       </c>
       <c r="H13">
-        <v>1.738460067659723E-2</v>
+        <v>0.063452449915797</v>
       </c>
       <c r="I13">
-        <v>1.941350962291738E-2</v>
+        <v>0.02037385873467658</v>
       </c>
       <c r="J13">
-        <v>4.1970368928284721E-2</v>
+        <v>0.0406469952779601</v>
       </c>
       <c r="K13">
-        <v>2.9325340878829539E-2</v>
+        <v>0.1210466443915771</v>
       </c>
       <c r="L13">
-        <v>3.4052692018888622E-2</v>
+        <v>0.05117610759881037</v>
       </c>
       <c r="M13">
-        <v>1.9739991403787679E-2</v>
+        <v>0.05127177309298269</v>
       </c>
       <c r="N13">
-        <v>7.7754435503220157E-2</v>
+        <v>0.04962694931183347</v>
       </c>
       <c r="O13">
-        <v>0.15384212468785879</v>
+        <v>0.02521593316271355</v>
       </c>
       <c r="P13">
-        <v>0.17705555390539091</v>
+        <v>0.0530766531385862</v>
       </c>
       <c r="Q13">
-        <v>2.1351746460972969E-2</v>
+        <v>0.07706619843211826</v>
       </c>
       <c r="R13">
-        <v>3.2470288689132078E-2</v>
+        <v>0.03565535040820517</v>
       </c>
       <c r="S13">
-        <v>2.8521197315821131E-2</v>
+        <v>0.01580573307613117</v>
       </c>
       <c r="T13">
-        <v>2.143490340529073E-2</v>
+        <v>0.02089412949648347</v>
       </c>
       <c r="U13">
-        <v>1.440400943100768E-2</v>
+        <v>0.0115080019257417</v>
       </c>
       <c r="V13">
-        <v>6.7854867147025804E-3</v>
+        <v>0.01350609129369866</v>
       </c>
       <c r="W13">
-        <v>2.0490651963729789E-2</v>
+        <v>0.005922927844739231</v>
       </c>
       <c r="X13">
-        <v>2.6145501640144189E-2</v>
+        <v>0.01509038506744854</v>
       </c>
       <c r="Y13">
-        <v>1.049271312071165E-2</v>
+        <v>0.007090561102274775</v>
       </c>
       <c r="Z13">
-        <v>1.153556837774488E-2</v>
+        <v>0.002216702319237453</v>
+      </c>
+      <c r="AA13">
+        <v>0.009043283614836925</v>
+      </c>
+      <c r="AB13">
+        <v>0.01079297776775024</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28">
       <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>0.06110994683509953</v>
+      </c>
+      <c r="C14">
+        <v>0.04285641942897003</v>
+      </c>
+      <c r="D14">
+        <v>0.01160208686587203</v>
+      </c>
+      <c r="E14">
+        <v>0.009265068403675374</v>
+      </c>
+      <c r="F14">
+        <v>0.08188514072725316</v>
+      </c>
+      <c r="G14">
+        <v>0.1766868212964967</v>
+      </c>
+      <c r="H14">
+        <v>0.1154048096273398</v>
+      </c>
+      <c r="I14">
+        <v>0.02790886901004248</v>
+      </c>
+      <c r="J14">
+        <v>0.03695729088476568</v>
+      </c>
+      <c r="K14">
+        <v>0.04450652965361396</v>
+      </c>
+      <c r="L14">
+        <v>0.03015297549064465</v>
+      </c>
+      <c r="M14">
+        <v>0.041266352357948</v>
+      </c>
+      <c r="N14">
+        <v>0.05380266146711105</v>
+      </c>
+      <c r="O14">
+        <v>0.02049246851150669</v>
+      </c>
+      <c r="P14">
+        <v>0.02942788890837448</v>
+      </c>
+      <c r="Q14">
+        <v>0.02994466362577855</v>
+      </c>
+      <c r="R14">
+        <v>0.04739844279149371</v>
+      </c>
+      <c r="S14">
+        <v>0.01365590920676191</v>
+      </c>
+      <c r="T14">
+        <v>0.02446686621790493</v>
+      </c>
+      <c r="U14">
+        <v>0.01229624688153556</v>
+      </c>
+      <c r="V14">
+        <v>0.0130030502979838</v>
+      </c>
+      <c r="W14">
+        <v>0.0076717462887108</v>
+      </c>
+      <c r="X14">
+        <v>0.02926355480368065</v>
+      </c>
+      <c r="Y14">
+        <v>0.006842096437370712</v>
+      </c>
+      <c r="Z14">
+        <v>0.003244200258117093</v>
+      </c>
+      <c r="AA14">
+        <v>0.01488338919682002</v>
+      </c>
+      <c r="AB14">
+        <v>0.01400450452512859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>0.1004489439071459</v>
+      </c>
+      <c r="C15">
+        <v>0.02685154772426957</v>
+      </c>
+      <c r="D15">
+        <v>0.02271509262760852</v>
+      </c>
+      <c r="E15">
+        <v>0.02386474712708538</v>
+      </c>
+      <c r="F15">
+        <v>0.0599641982483075</v>
+      </c>
+      <c r="G15">
+        <v>0.07571028264862938</v>
+      </c>
+      <c r="H15">
+        <v>0.08644263109921466</v>
+      </c>
+      <c r="I15">
+        <v>0.006293994614467858</v>
+      </c>
+      <c r="J15">
+        <v>0.1309333297468754</v>
+      </c>
+      <c r="K15">
+        <v>0.08414914054602968</v>
+      </c>
+      <c r="L15">
+        <v>0.06111104675538943</v>
+      </c>
+      <c r="M15">
+        <v>0.01696759318582135</v>
+      </c>
+      <c r="N15">
+        <v>0.05878108299336546</v>
+      </c>
+      <c r="O15">
+        <v>0.02436797699395106</v>
+      </c>
+      <c r="P15">
+        <v>0.05616220055285912</v>
+      </c>
+      <c r="Q15">
+        <v>0.05631692897965262</v>
+      </c>
+      <c r="R15">
+        <v>0.03208766560974612</v>
+      </c>
+      <c r="S15">
+        <v>0.003139363529846827</v>
+      </c>
+      <c r="T15">
+        <v>0.007703240362297817</v>
+      </c>
+      <c r="U15">
+        <v>0.004780156438576221</v>
+      </c>
+      <c r="V15">
+        <v>0.008660885564869637</v>
+      </c>
+      <c r="W15">
+        <v>0.0007854995633687922</v>
+      </c>
+      <c r="X15">
+        <v>0.008395374986405845</v>
+      </c>
+      <c r="Y15">
+        <v>0.004550171811903389</v>
+      </c>
+      <c r="Z15">
+        <v>0.0007573414678106583</v>
+      </c>
+      <c r="AA15">
+        <v>0.00325418340134292</v>
+      </c>
+      <c r="AB15">
+        <v>0.03480537951315885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14">
-        <v>3.0081811402683161E-2</v>
-      </c>
-      <c r="C14">
-        <v>3.0742939464749271E-2</v>
-      </c>
-      <c r="D14">
-        <v>4.5399753598703671E-2</v>
-      </c>
-      <c r="E14">
-        <v>3.6805559721975009E-2</v>
-      </c>
-      <c r="F14">
-        <v>2.496441784111586E-2</v>
-      </c>
-      <c r="G14">
-        <v>8.050929019593546E-2</v>
-      </c>
-      <c r="H14">
-        <v>1.8487104288603839E-2</v>
-      </c>
-      <c r="I14">
-        <v>2.0867687004524581E-2</v>
-      </c>
-      <c r="J14">
-        <v>4.8109707063540362E-2</v>
-      </c>
-      <c r="K14">
-        <v>2.656513024452441E-2</v>
-      </c>
-      <c r="L14">
-        <v>3.1346138933188258E-2</v>
-      </c>
-      <c r="M14">
-        <v>3.2560417529516758E-2</v>
-      </c>
-      <c r="N14">
-        <v>4.2031683079839739E-2</v>
-      </c>
-      <c r="O14">
-        <v>0.1207145601517627</v>
-      </c>
-      <c r="P14">
-        <v>0.18838242060865659</v>
-      </c>
-      <c r="Q14">
-        <v>1.7188215545308978E-2</v>
-      </c>
-      <c r="R14">
-        <v>4.4390573080804151E-2</v>
-      </c>
-      <c r="S14">
-        <v>2.368893455532553E-2</v>
-      </c>
-      <c r="T14">
-        <v>2.3449752304919209E-2</v>
-      </c>
-      <c r="U14">
-        <v>2.0663651653728951E-2</v>
-      </c>
-      <c r="V14">
-        <v>9.148281307809392E-3</v>
-      </c>
-      <c r="W14">
-        <v>3.0612214486428861E-2</v>
-      </c>
-      <c r="X14">
-        <v>3.1046875216095979E-2</v>
-      </c>
-      <c r="Y14">
-        <v>8.3244500756157799E-3</v>
-      </c>
-      <c r="Z14">
-        <v>1.391843064464357E-2</v>
+      <c r="B16">
+        <v>0.1554480188814262</v>
+      </c>
+      <c r="C16">
+        <v>0.01460235153633618</v>
+      </c>
+      <c r="D16">
+        <v>0.02446460193520589</v>
+      </c>
+      <c r="E16">
+        <v>0.1874725396164596</v>
+      </c>
+      <c r="F16">
+        <v>0.009489133510966911</v>
+      </c>
+      <c r="G16">
+        <v>0.004810158556816451</v>
+      </c>
+      <c r="H16">
+        <v>0.01232195123078954</v>
+      </c>
+      <c r="I16">
+        <v>0.009025029471925192</v>
+      </c>
+      <c r="J16">
+        <v>0.02791548666012222</v>
+      </c>
+      <c r="K16">
+        <v>0.01273333064695355</v>
+      </c>
+      <c r="L16">
+        <v>0.007300192242670121</v>
+      </c>
+      <c r="M16">
+        <v>0.00835653911693781</v>
+      </c>
+      <c r="N16">
+        <v>0.1129930747848133</v>
+      </c>
+      <c r="O16">
+        <v>0.1129185270856917</v>
+      </c>
+      <c r="P16">
+        <v>0.009251933810274978</v>
+      </c>
+      <c r="Q16">
+        <v>0.007202056127376416</v>
+      </c>
+      <c r="R16">
+        <v>0.04654324462951452</v>
+      </c>
+      <c r="S16">
+        <v>0.0158446325808859</v>
+      </c>
+      <c r="T16">
+        <v>0.01721868248466664</v>
+      </c>
+      <c r="U16">
+        <v>0.01430110709930675</v>
+      </c>
+      <c r="V16">
+        <v>0.0164800607250654</v>
+      </c>
+      <c r="W16">
+        <v>0.006026194341240322</v>
+      </c>
+      <c r="X16">
+        <v>0.07441604216046287</v>
+      </c>
+      <c r="Y16">
+        <v>0.0254811815460942</v>
+      </c>
+      <c r="Z16">
+        <v>0.0002567157526097603</v>
+      </c>
+      <c r="AA16">
+        <v>0.01059860254087346</v>
+      </c>
+      <c r="AB16">
+        <v>0.0565286109245141</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15">
-        <v>1.9526089652897809E-2</v>
-      </c>
-      <c r="C15">
-        <v>7.620073071687875E-3</v>
-      </c>
-      <c r="D15">
-        <v>1.8657417217151431E-2</v>
-      </c>
-      <c r="E15">
-        <v>0.13215020557330859</v>
-      </c>
-      <c r="F15">
-        <v>6.7621831233911642E-3</v>
-      </c>
-      <c r="G15">
-        <v>3.5480425016953497E-2</v>
-      </c>
-      <c r="H15">
-        <v>9.2450712302532215E-3</v>
-      </c>
-      <c r="I15">
-        <v>9.2256734473649786E-3</v>
-      </c>
-      <c r="J15">
-        <v>2.2213845427931759E-2</v>
-      </c>
-      <c r="K15">
-        <v>1.19842804460476E-2</v>
-      </c>
-      <c r="L15">
-        <v>2.887659832280956E-2</v>
-      </c>
-      <c r="M15">
-        <v>2.2735369825362509E-2</v>
-      </c>
-      <c r="N15">
-        <v>8.6798148848245701E-2</v>
-      </c>
-      <c r="O15">
-        <v>0.39888507158473208</v>
-      </c>
-      <c r="P15">
-        <v>2.8801877462569521E-2</v>
-      </c>
-      <c r="Q15">
-        <v>1.169130018758901E-2</v>
-      </c>
-      <c r="R15">
-        <v>2.1657894342044289E-2</v>
-      </c>
-      <c r="S15">
-        <v>1.9601087827193029E-2</v>
-      </c>
-      <c r="T15">
-        <v>1.2957764763709211E-2</v>
-      </c>
-      <c r="U15">
-        <v>1.1118408645921221E-2</v>
-      </c>
-      <c r="V15">
-        <v>1.1361925232927219E-3</v>
-      </c>
-      <c r="W15">
-        <v>3.6141616846712438E-2</v>
-      </c>
-      <c r="X15">
-        <v>1.6189065025095262E-2</v>
-      </c>
-      <c r="Y15">
-        <v>2.804768726123491E-2</v>
-      </c>
-      <c r="Z15">
-        <v>2.4966523265004831E-3</v>
+    <row r="17" spans="1:28">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>0.323922612191995</v>
+      </c>
+      <c r="C17">
+        <v>0.07625412893510169</v>
+      </c>
+      <c r="D17">
+        <v>0.04462275434897835</v>
+      </c>
+      <c r="E17">
+        <v>0.02456292895670326</v>
+      </c>
+      <c r="F17">
+        <v>0.009254002305227924</v>
+      </c>
+      <c r="G17">
+        <v>0.01533174730637316</v>
+      </c>
+      <c r="H17">
+        <v>0.01535630953367855</v>
+      </c>
+      <c r="I17">
+        <v>0.01461589457463295</v>
+      </c>
+      <c r="J17">
+        <v>0.01567271439080874</v>
+      </c>
+      <c r="K17">
+        <v>0.04075639270046363</v>
+      </c>
+      <c r="L17">
+        <v>0.01667181415454538</v>
+      </c>
+      <c r="M17">
+        <v>0.02332025426457501</v>
+      </c>
+      <c r="N17">
+        <v>0.1170946311630352</v>
+      </c>
+      <c r="O17">
+        <v>0.05404852237186916</v>
+      </c>
+      <c r="P17">
+        <v>0.02540122205764702</v>
+      </c>
+      <c r="Q17">
+        <v>0.01664800084769006</v>
+      </c>
+      <c r="R17">
+        <v>0.01447356423726321</v>
+      </c>
+      <c r="S17">
+        <v>0.01803433679893462</v>
+      </c>
+      <c r="T17">
+        <v>0.02940791692233129</v>
+      </c>
+      <c r="U17">
+        <v>0.02209053574851698</v>
+      </c>
+      <c r="V17">
+        <v>0.005531746171895312</v>
+      </c>
+      <c r="W17">
+        <v>0.00340356315435397</v>
+      </c>
+      <c r="X17">
+        <v>0.008743939471006195</v>
+      </c>
+      <c r="Y17">
+        <v>0.009136127839596709</v>
+      </c>
+      <c r="Z17">
+        <v>0.001008077115270757</v>
+      </c>
+      <c r="AA17">
+        <v>0.0165126367999506</v>
+      </c>
+      <c r="AB17">
+        <v>0.03812362563755525</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16">
-        <v>1.530174786778354E-2</v>
-      </c>
-      <c r="C16">
-        <v>1.079684738543879E-2</v>
-      </c>
-      <c r="D16">
-        <v>1.316725402789325E-2</v>
-      </c>
-      <c r="E16">
-        <v>0.1336043065250449</v>
-      </c>
-      <c r="F16">
-        <v>8.8323181526360206E-3</v>
-      </c>
-      <c r="G16">
-        <v>3.2521477585281962E-2</v>
-      </c>
-      <c r="H16">
-        <v>3.8232120322672418E-2</v>
-      </c>
-      <c r="I16">
-        <v>1.274861943013687E-2</v>
-      </c>
-      <c r="J16">
-        <v>8.8543914325106016E-3</v>
-      </c>
-      <c r="K16">
-        <v>2.9474144584342561E-2</v>
-      </c>
-      <c r="L16">
-        <v>1.5299389557129971E-2</v>
-      </c>
-      <c r="M16">
-        <v>1.559291357748499E-2</v>
-      </c>
-      <c r="N16">
-        <v>7.6184877465275871E-2</v>
-      </c>
-      <c r="O16">
-        <v>0.34035959495100698</v>
-      </c>
-      <c r="P16">
-        <v>2.5647591807701441E-2</v>
-      </c>
-      <c r="Q16">
-        <v>1.063136572696026E-2</v>
-      </c>
-      <c r="R16">
-        <v>1.236387281827901E-2</v>
-      </c>
-      <c r="S16">
-        <v>4.0733550974369967E-2</v>
-      </c>
-      <c r="T16">
-        <v>2.172505871546181E-2</v>
-      </c>
-      <c r="U16">
-        <v>1.194906348145904E-2</v>
-      </c>
-      <c r="V16">
-        <v>4.3007890191327936E-3</v>
-      </c>
-      <c r="W16">
-        <v>4.9629501312714187E-2</v>
-      </c>
-      <c r="X16">
-        <v>3.4938182814792607E-2</v>
-      </c>
-      <c r="Y16">
-        <v>2.9953445409296901E-2</v>
-      </c>
-      <c r="Z16">
-        <v>7.157575055193325E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17">
-        <v>0.25573037289092942</v>
-      </c>
-      <c r="C17">
-        <v>2.8510812969100401E-2</v>
-      </c>
-      <c r="D17">
-        <v>3.5683051983993269E-2</v>
-      </c>
-      <c r="E17">
-        <v>3.8697935625453712E-2</v>
-      </c>
-      <c r="F17">
-        <v>1.9893762828298189E-2</v>
-      </c>
-      <c r="G17">
-        <v>3.274901312462121E-2</v>
-      </c>
-      <c r="H17">
-        <v>2.220658618820805E-2</v>
-      </c>
-      <c r="I17">
-        <v>3.039752554531196E-2</v>
-      </c>
-      <c r="J17">
-        <v>1.6128913983083078E-2</v>
-      </c>
-      <c r="K17">
-        <v>1.268029987207701E-2</v>
-      </c>
-      <c r="L17">
-        <v>2.6118140088059041E-2</v>
-      </c>
-      <c r="M17">
-        <v>2.7392313570825961E-2</v>
-      </c>
-      <c r="N17">
-        <v>2.6381404936531658E-2</v>
-      </c>
-      <c r="O17">
-        <v>0.17806368805346351</v>
-      </c>
-      <c r="P17">
-        <v>3.2544051374945697E-2</v>
-      </c>
-      <c r="Q17">
-        <v>1.396770973967197E-2</v>
-      </c>
-      <c r="R17">
-        <v>3.6762860676434243E-2</v>
-      </c>
-      <c r="S17">
-        <v>2.7624794368263771E-2</v>
-      </c>
-      <c r="T17">
-        <v>6.8050442276009482E-2</v>
-      </c>
-      <c r="U17">
-        <v>2.3600207271827361E-2</v>
-      </c>
-      <c r="V17">
-        <v>5.2852362530050835E-4</v>
-      </c>
-      <c r="W17">
-        <v>8.5252283452589249E-3</v>
-      </c>
-      <c r="X17">
-        <v>2.2429752046243791E-2</v>
-      </c>
-      <c r="Y17">
-        <v>8.525166432489727E-3</v>
-      </c>
-      <c r="Z17">
-        <v>6.8074421835979428E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18">
-        <v>4.7439746185068327E-2</v>
+        <v>0.1609302940916876</v>
       </c>
       <c r="C18">
-        <v>2.9261261024746549E-3</v>
+        <v>0.05766565033125654</v>
       </c>
       <c r="D18">
-        <v>3.358242949451589E-2</v>
+        <v>0.04903887311965747</v>
       </c>
       <c r="E18">
-        <v>4.0219307538009813E-2</v>
+        <v>0.2879066577065117</v>
       </c>
       <c r="F18">
-        <v>1.2084724175966991E-2</v>
+        <v>0.1404606642292244</v>
       </c>
       <c r="G18">
-        <v>5.3838698742136308E-2</v>
+        <v>0.009977154409573851</v>
       </c>
       <c r="H18">
-        <v>1.0037706322807099E-2</v>
+        <v>0.00321964420085003</v>
       </c>
       <c r="I18">
-        <v>5.1131144499258901E-3</v>
+        <v>0.02015124161942899</v>
       </c>
       <c r="J18">
-        <v>1.251793498116989E-2</v>
+        <v>0.004893085230378522</v>
       </c>
       <c r="K18">
-        <v>6.9000013506269522E-3</v>
+        <v>0.006499368505728752</v>
       </c>
       <c r="L18">
-        <v>8.4451884013808431E-2</v>
+        <v>0.003306714128621389</v>
       </c>
       <c r="M18">
-        <v>3.9208148460687299E-2</v>
+        <v>0.009159431768932467</v>
       </c>
       <c r="N18">
-        <v>5.3100557382515269E-2</v>
+        <v>0.04849230824704369</v>
       </c>
       <c r="O18">
-        <v>0.35670096649943273</v>
+        <v>0.00376159418190528</v>
       </c>
       <c r="P18">
-        <v>8.7039697638527425E-2</v>
+        <v>0.03267042649889727</v>
       </c>
       <c r="Q18">
-        <v>9.8568020758723705E-3</v>
+        <v>0.015766617302547</v>
       </c>
       <c r="R18">
-        <v>5.1342665067828933E-2</v>
+        <v>0.0572472598627174</v>
       </c>
       <c r="S18">
-        <v>2.426275279327493E-2</v>
+        <v>0.003172814160997354</v>
       </c>
       <c r="T18">
-        <v>2.0824464127397309E-2</v>
+        <v>0.006528096569587703</v>
       </c>
       <c r="U18">
-        <v>3.8462768967675392E-3</v>
+        <v>0.004767907773080457</v>
       </c>
       <c r="V18">
-        <v>1.5397823607782551E-3</v>
+        <v>0.02674973622710899</v>
       </c>
       <c r="W18">
-        <v>1.9281501434059909E-2</v>
+        <v>0.0009654402302231224</v>
       </c>
       <c r="X18">
-        <v>1.370424073936545E-2</v>
+        <v>0.002525304474779614</v>
       </c>
       <c r="Y18">
-        <v>8.5096974906948807E-3</v>
+        <v>0.003468589078353887</v>
       </c>
       <c r="Z18">
-        <v>1.6707736762875691E-3</v>
+        <v>0.001241365181505335</v>
+      </c>
+      <c r="AA18">
+        <v>0.005850931062343558</v>
+      </c>
+      <c r="AB18">
+        <v>0.03358282980705758</v>
       </c>
     </row>
   </sheetData>
